--- a/Code/Results/Cases/Case_4_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.477700256986964</v>
+        <v>1.382793479608949</v>
       </c>
       <c r="C2">
-        <v>0.5069703194672002</v>
+        <v>0.295668839537484</v>
       </c>
       <c r="D2">
-        <v>0.2018736071886025</v>
+        <v>0.0789221934265214</v>
       </c>
       <c r="E2">
-        <v>0.03769148291911506</v>
+        <v>0.1015250414218549</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3442360239395725</v>
+        <v>0.4916681496755189</v>
       </c>
       <c r="H2">
-        <v>0.2652136843194768</v>
+        <v>0.6313646754332041</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3268195154985847</v>
+        <v>0.2156223791713927</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.23516937727041</v>
+        <v>2.208208847287381</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.023213067128324</v>
+        <v>1.24211875765144</v>
       </c>
       <c r="C3">
-        <v>0.4636634985814112</v>
+        <v>0.2811478313233522</v>
       </c>
       <c r="D3">
-        <v>0.1749579919280961</v>
+        <v>0.07153395446266586</v>
       </c>
       <c r="E3">
-        <v>0.03861903595582561</v>
+        <v>0.1028782273118711</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3219097012365424</v>
+        <v>0.4935663384005693</v>
       </c>
       <c r="H3">
-        <v>0.2625439473915634</v>
+        <v>0.6373757017971755</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2863405554282394</v>
+        <v>0.2051410966078464</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.181779528664975</v>
+        <v>2.22447858884324</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.744709885809471</v>
+        <v>1.155679486509314</v>
       </c>
       <c r="C4">
-        <v>0.4371506908478011</v>
+        <v>0.2722261428207275</v>
       </c>
       <c r="D4">
-        <v>0.1586007846105701</v>
+        <v>0.0670323645140769</v>
       </c>
       <c r="E4">
-        <v>0.03931048869706899</v>
+        <v>0.1037769102375972</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3095390503505229</v>
+        <v>0.4952528422650815</v>
       </c>
       <c r="H4">
-        <v>0.2617064841021133</v>
+        <v>0.6414820881226717</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2617386664267798</v>
+        <v>0.1987996503366389</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.153500554858709</v>
+        <v>2.23643099991159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.631311268762772</v>
+        <v>1.120440608262754</v>
       </c>
       <c r="C5">
-        <v>0.4263625521589631</v>
+        <v>0.2685893578652951</v>
       </c>
       <c r="D5">
-        <v>0.1519723519411826</v>
+        <v>0.06520666886756032</v>
       </c>
       <c r="E5">
-        <v>0.0396217321356378</v>
+        <v>0.104160175165303</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3048120593043393</v>
+        <v>0.4960706752658623</v>
       </c>
       <c r="H5">
-        <v>0.2615567742988318</v>
+        <v>0.6432598784631267</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2517696112261518</v>
+        <v>0.1962392017194219</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.143040633120691</v>
+        <v>2.241794092764351</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.612485900850402</v>
+        <v>1.114588423459338</v>
       </c>
       <c r="C6">
-        <v>0.4245720619934445</v>
+        <v>0.2679854139736051</v>
       </c>
       <c r="D6">
-        <v>0.1508738080306671</v>
+        <v>0.0649040408214745</v>
       </c>
       <c r="E6">
-        <v>0.03967516014207284</v>
+        <v>0.104224845160239</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3040454917078605</v>
+        <v>0.4962143488585795</v>
       </c>
       <c r="H6">
-        <v>0.2615432014499035</v>
+        <v>0.6435613820615913</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2501174664700869</v>
+        <v>0.1958154775099388</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.141366107346471</v>
+        <v>2.242714335403193</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.743180231029953</v>
+        <v>1.155204297358466</v>
       </c>
       <c r="C7">
-        <v>0.437005137697696</v>
+        <v>0.2721770999970659</v>
       </c>
       <c r="D7">
-        <v>0.1585112471172607</v>
+        <v>0.06700770718185822</v>
       </c>
       <c r="E7">
-        <v>0.03931456843848657</v>
+        <v>0.1037820100836928</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3094740570620047</v>
+        <v>0.4952633437670073</v>
       </c>
       <c r="H7">
-        <v>0.2617037023161686</v>
+        <v>0.6415056414286369</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2616040008504825</v>
+        <v>0.1987650229932285</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.153355268161945</v>
+        <v>2.23650133633555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.320849605970068</v>
+        <v>1.33430337196063</v>
       </c>
       <c r="C8">
-        <v>0.4920197776145017</v>
+        <v>0.2906633694429104</v>
       </c>
       <c r="D8">
-        <v>0.1925547473931601</v>
+        <v>0.0763674897045945</v>
       </c>
       <c r="E8">
-        <v>0.03798526204396602</v>
+        <v>0.1019775377439149</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.33624647445302</v>
+        <v>0.492214242662854</v>
       </c>
       <c r="H8">
-        <v>0.2641205338525054</v>
+        <v>0.6333509613289294</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3128056129661587</v>
+        <v>0.2119889452247605</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.215783811149294</v>
+        <v>2.213410594180402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.460321930954763</v>
+        <v>1.684934013954944</v>
       </c>
       <c r="C9">
-        <v>0.6006984987423323</v>
+        <v>0.3268574469618102</v>
       </c>
       <c r="D9">
-        <v>0.2609105210994329</v>
+        <v>0.09500000021172639</v>
       </c>
       <c r="E9">
-        <v>0.03640261375382536</v>
+        <v>0.0989775377044726</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4004302161652049</v>
+        <v>0.4903894979549221</v>
       </c>
       <c r="H9">
-        <v>0.275703702471489</v>
+        <v>0.6206618609687098</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.415558117603851</v>
+        <v>0.2386657811587725</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.377207201976717</v>
+        <v>2.18375678293782</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.305045218320231</v>
+        <v>1.942118810136094</v>
       </c>
       <c r="C10">
-        <v>0.681307960948061</v>
+        <v>0.3534009811071712</v>
       </c>
       <c r="D10">
-        <v>0.3124874582229893</v>
+        <v>0.10886260616968</v>
       </c>
       <c r="E10">
-        <v>0.03594777663799675</v>
+        <v>0.09710234318609245</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.456298871421609</v>
+        <v>0.4916108937332098</v>
       </c>
       <c r="H10">
-        <v>0.2891036011944266</v>
+        <v>0.6133590231373915</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4930005447305632</v>
+        <v>0.2587190426737322</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.524456848706109</v>
+        <v>2.171573561198727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.691825916515938</v>
+        <v>2.059014289801723</v>
       </c>
       <c r="C11">
-        <v>0.7182139097722029</v>
+        <v>0.3654632774199058</v>
       </c>
       <c r="D11">
-        <v>0.3363377486429755</v>
+        <v>0.1152075954398839</v>
       </c>
       <c r="E11">
-        <v>0.03591457153821942</v>
+        <v>0.09632081285647587</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4839904820510839</v>
+        <v>0.4927291912584479</v>
       </c>
       <c r="H11">
-        <v>0.2964345184344666</v>
+        <v>0.6104768371112925</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5287805767076748</v>
+        <v>0.267940437037069</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.598842171148334</v>
+        <v>2.168133006987318</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.838727250432555</v>
+        <v>2.103263703402547</v>
       </c>
       <c r="C12">
-        <v>0.7322293707856886</v>
+        <v>0.3700288918943215</v>
       </c>
       <c r="D12">
-        <v>0.3454332398216735</v>
+        <v>0.117615899830156</v>
       </c>
       <c r="E12">
-        <v>0.03592878532280253</v>
+        <v>0.09603516151853242</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4948388050226384</v>
+        <v>0.493234066308986</v>
       </c>
       <c r="H12">
-        <v>0.2994039355731388</v>
+        <v>0.6094488061665118</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5424201099134791</v>
+        <v>0.27144654366829</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.628181079110277</v>
+        <v>2.167133675383241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.8070687749115</v>
+        <v>2.093734561696465</v>
       </c>
       <c r="C13">
-        <v>0.7292090110299796</v>
+        <v>0.3690457042449395</v>
       </c>
       <c r="D13">
-        <v>0.3434713840313179</v>
+        <v>0.1170969793728034</v>
       </c>
       <c r="E13">
-        <v>0.03592450243292866</v>
+        <v>0.09609622343628921</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.492485735903216</v>
+        <v>0.4931217044020997</v>
       </c>
       <c r="H13">
-        <v>0.2987555543274851</v>
+        <v>0.6096673896274041</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.539478383483484</v>
+        <v>0.2706908121696614</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.621808557072399</v>
+        <v>2.167335378765102</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.703902391033466</v>
+        <v>2.062655055700873</v>
       </c>
       <c r="C14">
-        <v>0.7193661326360825</v>
+        <v>0.3658389374774913</v>
       </c>
       <c r="D14">
-        <v>0.337084710401399</v>
+        <v>0.1154056158969468</v>
       </c>
       <c r="E14">
-        <v>0.03591519318765535</v>
+        <v>0.09629710569191197</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.484875513751291</v>
+        <v>0.4927690934690645</v>
       </c>
       <c r="H14">
-        <v>0.2966748442316742</v>
+        <v>0.6103909891964605</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5299008300393808</v>
+        <v>0.2682286031169525</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.601231794303004</v>
+        <v>2.168044700627178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.64076909349501</v>
+        <v>2.043615767228346</v>
       </c>
       <c r="C15">
-        <v>0.7133424792091603</v>
+        <v>0.3638744153612947</v>
       </c>
       <c r="D15">
-        <v>0.333181263731305</v>
+        <v>0.1143703358806363</v>
       </c>
       <c r="E15">
-        <v>0.03591303563674231</v>
+        <v>0.09642149331905792</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4802622698234131</v>
+        <v>0.4925637242157848</v>
       </c>
       <c r="H15">
-        <v>0.2954260192066442</v>
+        <v>0.6108424740234426</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5240464235640587</v>
+        <v>0.2667222712605053</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.588783718749482</v>
+        <v>2.168518748506131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.279824972274866</v>
+        <v>1.934477239371688</v>
       </c>
       <c r="C16">
-        <v>0.6789013259783587</v>
+        <v>0.352612402940423</v>
       </c>
       <c r="D16">
-        <v>0.3109372693358807</v>
+        <v>0.1084487284257705</v>
       </c>
       <c r="E16">
-        <v>0.03595359360451233</v>
+        <v>0.09715485817049618</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4545378768162891</v>
+        <v>0.4915491746146614</v>
       </c>
       <c r="H16">
-        <v>0.2886506803750848</v>
+        <v>0.6135562441722016</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4906742583461323</v>
+        <v>0.258118389388315</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.519753429169754</v>
+        <v>2.171840812795864</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.059091917887883</v>
+        <v>1.867497380193186</v>
       </c>
       <c r="C17">
-        <v>0.6578374168728374</v>
+        <v>0.3457000953984561</v>
       </c>
       <c r="D17">
-        <v>0.2973961963286627</v>
+        <v>0.1048259657600568</v>
       </c>
       <c r="E17">
-        <v>0.03602420917997051</v>
+        <v>0.0976230785327008</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4393637412489113</v>
+        <v>0.4910712443169132</v>
       </c>
       <c r="H17">
-        <v>0.2848213986875265</v>
+        <v>0.6153338198696048</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4703503204142976</v>
+        <v>0.2528655017754176</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.47937423307053</v>
+        <v>2.174418013852488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.932363687227735</v>
+        <v>1.828963126389624</v>
       </c>
       <c r="C18">
-        <v>0.6457438646499156</v>
+        <v>0.3417231620534835</v>
       </c>
       <c r="D18">
-        <v>0.2896436946991088</v>
+        <v>0.1027459017306143</v>
       </c>
       <c r="E18">
-        <v>0.03608105899216696</v>
+        <v>0.09789911600963741</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4308480322902284</v>
+        <v>0.4908492843904639</v>
       </c>
       <c r="H18">
-        <v>0.2827341485921693</v>
+        <v>0.6163976330906422</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4587116781981564</v>
+        <v>0.2498535090063285</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.456838904496635</v>
+        <v>2.176098091004235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.889493289050847</v>
+        <v>1.815914572854183</v>
       </c>
       <c r="C19">
-        <v>0.641652774526591</v>
+        <v>0.3403764518639605</v>
       </c>
       <c r="D19">
-        <v>0.2870247698559467</v>
+        <v>0.1020422548543678</v>
       </c>
       <c r="E19">
-        <v>0.03610304255824559</v>
+        <v>0.09799373290102942</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4280001670223754</v>
+        <v>0.4907832089689492</v>
       </c>
       <c r="H19">
-        <v>0.2820467774163546</v>
+        <v>0.6167649282236738</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4547794934772611</v>
+        <v>0.2488353047891252</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.449324180844314</v>
+        <v>2.176700857995058</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.082564839746055</v>
+        <v>1.874628469120182</v>
       </c>
       <c r="C20">
-        <v>0.6600774026931333</v>
+        <v>0.3464360443952899</v>
       </c>
       <c r="D20">
-        <v>0.2988338873541494</v>
+        <v>0.1052112368443261</v>
       </c>
       <c r="E20">
-        <v>0.03601499924024232</v>
+        <v>0.09757253908894192</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4409568646450026</v>
+        <v>0.4911166389127715</v>
       </c>
       <c r="H20">
-        <v>0.285216994282564</v>
+        <v>0.6151403083364073</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4725084665759454</v>
+        <v>0.2534237156751402</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.48360053973903</v>
+        <v>2.174123191571596</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.734192401600296</v>
+        <v>2.071784320870279</v>
       </c>
       <c r="C21">
-        <v>0.7222560890704415</v>
+        <v>0.3667809025425299</v>
       </c>
       <c r="D21">
-        <v>0.338958828681001</v>
+        <v>0.1159022584150904</v>
       </c>
       <c r="E21">
-        <v>0.03591718541424704</v>
+        <v>0.09623782212140775</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4871007018979014</v>
+        <v>0.4928704507979091</v>
       </c>
       <c r="H21">
-        <v>0.2972806196906816</v>
+        <v>0.6101767290189173</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5327114422682797</v>
+        <v>0.268951429813356</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.607243019956428</v>
+        <v>2.16782810737493</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.162648758052683</v>
+        <v>2.20054070382696</v>
       </c>
       <c r="C22">
-        <v>0.7631296672317092</v>
+        <v>0.3800649685867654</v>
       </c>
       <c r="D22">
-        <v>0.3655595447175699</v>
+        <v>0.1229220744547348</v>
       </c>
       <c r="E22">
-        <v>0.03601034035313511</v>
+        <v>0.0954255344724686</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5193872560945039</v>
+        <v>0.4944913548641239</v>
       </c>
       <c r="H22">
-        <v>0.3063001970158012</v>
+        <v>0.6073022914234087</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5725904252546599</v>
+        <v>0.2791822145934049</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.694930809569115</v>
+        <v>2.165483727923942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.933711056601169</v>
+        <v>2.131830506069264</v>
       </c>
       <c r="C23">
-        <v>0.7412909294588417</v>
+        <v>0.3729762582917147</v>
       </c>
       <c r="D23">
-        <v>0.3513249010165111</v>
+        <v>0.1191724782214436</v>
       </c>
       <c r="E23">
-        <v>0.03594561407865449</v>
+        <v>0.09585357029264685</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5019482855988997</v>
+        <v>0.4935826534276799</v>
       </c>
       <c r="H23">
-        <v>0.3013768540607629</v>
+        <v>0.6088025757285607</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5512535673763495</v>
+        <v>0.2737143275261928</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.647463083023922</v>
+        <v>2.166572594865102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.071952194924847</v>
+        <v>1.871404586643905</v>
       </c>
       <c r="C24">
-        <v>0.6590646545626271</v>
+        <v>0.3461033310381652</v>
       </c>
       <c r="D24">
-        <v>0.2981838068019016</v>
+        <v>0.1050370473469968</v>
       </c>
       <c r="E24">
-        <v>0.03601911256788881</v>
+        <v>0.09759536663123924</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4402359679523471</v>
+        <v>0.491095951556602</v>
       </c>
       <c r="H24">
-        <v>0.2850377908092554</v>
+        <v>0.6152276645120907</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4715326266841373</v>
+        <v>0.2531713223659295</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.481687718862531</v>
+        <v>2.174255862781649</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.15100760446245</v>
+        <v>1.590148647062108</v>
       </c>
       <c r="C25">
-        <v>0.5711856241589715</v>
+        <v>0.3170735254962267</v>
       </c>
       <c r="D25">
-        <v>0.242209679488127</v>
+        <v>0.08992925391349615</v>
       </c>
       <c r="E25">
-        <v>0.03671283167163253</v>
+        <v>0.09973139977718937</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3816588110852024</v>
+        <v>0.4904353303068518</v>
       </c>
       <c r="H25">
-        <v>0.2717665561610545</v>
+        <v>0.623740378746902</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3874583367942961</v>
+        <v>0.2313692862832823</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.328880570567975</v>
+        <v>2.190097988944387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.382793479608949</v>
+        <v>3.477700256987134</v>
       </c>
       <c r="C2">
-        <v>0.295668839537484</v>
+        <v>0.506970319467456</v>
       </c>
       <c r="D2">
-        <v>0.0789221934265214</v>
+        <v>0.2018736071886735</v>
       </c>
       <c r="E2">
-        <v>0.1015250414218549</v>
+        <v>0.03769148291910085</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4916681496755189</v>
+        <v>0.3442360239395725</v>
       </c>
       <c r="H2">
-        <v>0.6313646754332041</v>
+        <v>0.2652136843194768</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2156223791713927</v>
+        <v>0.3268195154985563</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.208208847287381</v>
+        <v>1.235169377270495</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.24211875765144</v>
+        <v>3.023213067128381</v>
       </c>
       <c r="C3">
-        <v>0.2811478313233522</v>
+        <v>0.463663498581667</v>
       </c>
       <c r="D3">
-        <v>0.07153395446266586</v>
+        <v>0.1749579919279824</v>
       </c>
       <c r="E3">
-        <v>0.1028782273118711</v>
+        <v>0.03861903595580962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4935663384005693</v>
+        <v>0.3219097012365566</v>
       </c>
       <c r="H3">
-        <v>0.6373757017971755</v>
+        <v>0.2625439473916771</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2051410966078464</v>
+        <v>0.2863405554281826</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.22447858884324</v>
+        <v>1.181779528664919</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.155679486509314</v>
+        <v>2.744709885809243</v>
       </c>
       <c r="C4">
-        <v>0.2722261428207275</v>
+        <v>0.4371506908479716</v>
       </c>
       <c r="D4">
-        <v>0.0670323645140769</v>
+        <v>0.1586007846104707</v>
       </c>
       <c r="E4">
-        <v>0.1037769102375972</v>
+        <v>0.03931048869708498</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4952528422650815</v>
+        <v>0.3095390503505229</v>
       </c>
       <c r="H4">
-        <v>0.6414820881226717</v>
+        <v>0.2617064841019996</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1987996503366389</v>
+        <v>0.2617386664268082</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.23643099991159</v>
+        <v>1.153500554858709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.120440608262754</v>
+        <v>2.631311268762715</v>
       </c>
       <c r="C5">
-        <v>0.2685893578652951</v>
+        <v>0.4263625521588779</v>
       </c>
       <c r="D5">
-        <v>0.06520666886756032</v>
+        <v>0.1519723519411258</v>
       </c>
       <c r="E5">
-        <v>0.104160175165303</v>
+        <v>0.0396217321356449</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4960706752658623</v>
+        <v>0.304812059304389</v>
       </c>
       <c r="H5">
-        <v>0.6432598784631267</v>
+        <v>0.261556774298711</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1962392017194219</v>
+        <v>0.251769611226095</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.241794092764351</v>
+        <v>1.143040633120691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.114588423459338</v>
+        <v>2.612485900850402</v>
       </c>
       <c r="C6">
-        <v>0.2679854139736051</v>
+        <v>0.424572061993473</v>
       </c>
       <c r="D6">
-        <v>0.0649040408214745</v>
+        <v>0.1508738080307381</v>
       </c>
       <c r="E6">
-        <v>0.104224845160239</v>
+        <v>0.03967516014204975</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4962143488585795</v>
+        <v>0.3040454917079103</v>
       </c>
       <c r="H6">
-        <v>0.6435613820615913</v>
+        <v>0.2615432014500172</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1958154775099388</v>
+        <v>0.2501174664701011</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.242714335403193</v>
+        <v>1.141366107346471</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.155204297358466</v>
+        <v>2.743180231029839</v>
       </c>
       <c r="C7">
-        <v>0.2721770999970659</v>
+        <v>0.4370051376976392</v>
       </c>
       <c r="D7">
-        <v>0.06700770718185822</v>
+        <v>0.1585112471171328</v>
       </c>
       <c r="E7">
-        <v>0.1037820100836928</v>
+        <v>0.03931456843849723</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4952633437670073</v>
+        <v>0.309474057061891</v>
       </c>
       <c r="H7">
-        <v>0.6415056414286369</v>
+        <v>0.2617037023161686</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1987650229932285</v>
+        <v>0.2616040008504967</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.23650133633555</v>
+        <v>1.15335526816196</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.33430337196063</v>
+        <v>3.320849605970011</v>
       </c>
       <c r="C8">
-        <v>0.2906633694429104</v>
+        <v>0.4920197776147859</v>
       </c>
       <c r="D8">
-        <v>0.0763674897045945</v>
+        <v>0.1925547473930322</v>
       </c>
       <c r="E8">
-        <v>0.1019775377439149</v>
+        <v>0.03798526204396424</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.492214242662854</v>
+        <v>0.3362464744530058</v>
       </c>
       <c r="H8">
-        <v>0.6333509613289294</v>
+        <v>0.2641205338523775</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2119889452247605</v>
+        <v>0.3128056129661303</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.213410594180402</v>
+        <v>1.215783811149294</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684934013954944</v>
+        <v>4.460321930954763</v>
       </c>
       <c r="C9">
-        <v>0.3268574469618102</v>
+        <v>0.6006984987425312</v>
       </c>
       <c r="D9">
-        <v>0.09500000021172639</v>
+        <v>0.2609105210995324</v>
       </c>
       <c r="E9">
-        <v>0.0989775377044726</v>
+        <v>0.03640261375385379</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4903894979549221</v>
+        <v>0.400430216165276</v>
       </c>
       <c r="H9">
-        <v>0.6206618609687098</v>
+        <v>0.2757037024714748</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2386657811587725</v>
+        <v>0.4155581176037657</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.18375678293782</v>
+        <v>1.37720720197666</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.942118810136094</v>
+        <v>5.305045218320345</v>
       </c>
       <c r="C10">
-        <v>0.3534009811071712</v>
+        <v>0.6813079609480894</v>
       </c>
       <c r="D10">
-        <v>0.10886260616968</v>
+        <v>0.3124874582229893</v>
       </c>
       <c r="E10">
-        <v>0.09710234318609245</v>
+        <v>0.03594777663798965</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4916108937332098</v>
+        <v>0.4562988714214811</v>
       </c>
       <c r="H10">
-        <v>0.6133590231373915</v>
+        <v>0.2891036011944266</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2587190426737322</v>
+        <v>0.4930005447305774</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.171573561198727</v>
+        <v>1.524456848706052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.059014289801723</v>
+        <v>5.691825916515825</v>
       </c>
       <c r="C11">
-        <v>0.3654632774199058</v>
+        <v>0.7182139097717766</v>
       </c>
       <c r="D11">
-        <v>0.1152075954398839</v>
+        <v>0.3363377486432739</v>
       </c>
       <c r="E11">
-        <v>0.09632081285647587</v>
+        <v>0.03591457153822475</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4927291912584479</v>
+        <v>0.4839904820510696</v>
       </c>
       <c r="H11">
-        <v>0.6104768371112925</v>
+        <v>0.2964345184344808</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.267940437037069</v>
+        <v>0.5287805767077032</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.168133006987318</v>
+        <v>1.598842171148277</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.103263703402547</v>
+        <v>5.838727250432214</v>
       </c>
       <c r="C12">
-        <v>0.3700288918943215</v>
+        <v>0.7322293707857455</v>
       </c>
       <c r="D12">
-        <v>0.117615899830156</v>
+        <v>0.3454332398215598</v>
       </c>
       <c r="E12">
-        <v>0.09603516151853242</v>
+        <v>0.03592878532279364</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.493234066308986</v>
+        <v>0.4948388050226953</v>
       </c>
       <c r="H12">
-        <v>0.6094488061665118</v>
+        <v>0.2994039355732525</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.27144654366829</v>
+        <v>0.5424201099135928</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.167133675383241</v>
+        <v>1.628181079110192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.093734561696465</v>
+        <v>5.80706877491167</v>
       </c>
       <c r="C13">
-        <v>0.3690457042449395</v>
+        <v>0.7292090110297238</v>
       </c>
       <c r="D13">
-        <v>0.1170969793728034</v>
+        <v>0.3434713840314316</v>
       </c>
       <c r="E13">
-        <v>0.09609622343628921</v>
+        <v>0.03592450243291445</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4931217044020997</v>
+        <v>0.4924857359031165</v>
       </c>
       <c r="H13">
-        <v>0.6096673896274041</v>
+        <v>0.2987555543274993</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2706908121696614</v>
+        <v>0.539478383483484</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.167335378765102</v>
+        <v>1.621808557072455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.062655055700873</v>
+        <v>5.703902391033296</v>
       </c>
       <c r="C14">
-        <v>0.3658389374774913</v>
+        <v>0.7193661326363383</v>
       </c>
       <c r="D14">
-        <v>0.1154056158969468</v>
+        <v>0.3370847104015127</v>
       </c>
       <c r="E14">
-        <v>0.09629710569191197</v>
+        <v>0.03591519318766601</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4927690934690645</v>
+        <v>0.484875513751291</v>
       </c>
       <c r="H14">
-        <v>0.6103909891964605</v>
+        <v>0.29667484423166</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2682286031169525</v>
+        <v>0.5299008300392671</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.168044700627178</v>
+        <v>1.601231794303089</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.043615767228346</v>
+        <v>5.640769093494896</v>
       </c>
       <c r="C15">
-        <v>0.3638744153612947</v>
+        <v>0.7133424792086771</v>
       </c>
       <c r="D15">
-        <v>0.1143703358806363</v>
+        <v>0.3331812637313618</v>
       </c>
       <c r="E15">
-        <v>0.09642149331905792</v>
+        <v>0.03591303563673698</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4925637242157848</v>
+        <v>0.4802622698234842</v>
       </c>
       <c r="H15">
-        <v>0.6108424740234426</v>
+        <v>0.2954260192066442</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2667222712605053</v>
+        <v>0.5240464235640871</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.168518748506131</v>
+        <v>1.588783718749454</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.934477239371688</v>
+        <v>5.27982497227498</v>
       </c>
       <c r="C16">
-        <v>0.352612402940423</v>
+        <v>0.6789013259784156</v>
       </c>
       <c r="D16">
-        <v>0.1084487284257705</v>
+        <v>0.310937269335767</v>
       </c>
       <c r="E16">
-        <v>0.09715485817049618</v>
+        <v>0.03595359360452122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4915491746146614</v>
+        <v>0.4545378768162607</v>
       </c>
       <c r="H16">
-        <v>0.6135562441722016</v>
+        <v>0.2886506803750848</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.258118389388315</v>
+        <v>0.4906742583461039</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.171840812795864</v>
+        <v>1.519753429169782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.867497380193186</v>
+        <v>5.059091917887997</v>
       </c>
       <c r="C17">
-        <v>0.3457000953984561</v>
+        <v>0.6578374168732637</v>
       </c>
       <c r="D17">
-        <v>0.1048259657600568</v>
+        <v>0.2973961963285916</v>
       </c>
       <c r="E17">
-        <v>0.0976230785327008</v>
+        <v>0.03602420917995808</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4910712443169132</v>
+        <v>0.4393637412489255</v>
       </c>
       <c r="H17">
-        <v>0.6153338198696048</v>
+        <v>0.2848213986875265</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2528655017754176</v>
+        <v>0.4703503204142976</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.174418013852488</v>
+        <v>1.47937423307053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.828963126389624</v>
+        <v>4.932363687227564</v>
       </c>
       <c r="C18">
-        <v>0.3417231620534835</v>
+        <v>0.645743864650143</v>
       </c>
       <c r="D18">
-        <v>0.1027459017306143</v>
+        <v>0.2896436946993362</v>
       </c>
       <c r="E18">
-        <v>0.09789911600963741</v>
+        <v>0.03608105899217762</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4908492843904639</v>
+        <v>0.4308480322902568</v>
       </c>
       <c r="H18">
-        <v>0.6163976330906422</v>
+        <v>0.2827341485921693</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2498535090063285</v>
+        <v>0.458711678198128</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.176098091004235</v>
+        <v>1.456838904496635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.815914572854183</v>
+        <v>4.88949328905062</v>
       </c>
       <c r="C19">
-        <v>0.3403764518639605</v>
+        <v>0.6416527745264204</v>
       </c>
       <c r="D19">
-        <v>0.1020422548543678</v>
+        <v>0.2870247698558757</v>
       </c>
       <c r="E19">
-        <v>0.09799373290102942</v>
+        <v>0.03610304255825447</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4907832089689492</v>
+        <v>0.4280001670223328</v>
       </c>
       <c r="H19">
-        <v>0.6167649282236738</v>
+        <v>0.2820467774163546</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2488353047891252</v>
+        <v>0.4547794934772611</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.176700857995058</v>
+        <v>1.449324180844371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.874628469120182</v>
+        <v>5.082564839745885</v>
       </c>
       <c r="C20">
-        <v>0.3464360443952899</v>
+        <v>0.6600774026929628</v>
       </c>
       <c r="D20">
-        <v>0.1052112368443261</v>
+        <v>0.2988338873541494</v>
       </c>
       <c r="E20">
-        <v>0.09757253908894192</v>
+        <v>0.03601499924025653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4911166389127715</v>
+        <v>0.4409568646449742</v>
       </c>
       <c r="H20">
-        <v>0.6151403083364073</v>
+        <v>0.285216994282564</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2534237156751402</v>
+        <v>0.4725084665759596</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.174123191571596</v>
+        <v>1.483600539739058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.071784320870279</v>
+        <v>5.734192401600296</v>
       </c>
       <c r="C21">
-        <v>0.3667809025425299</v>
+        <v>0.7222560890705267</v>
       </c>
       <c r="D21">
-        <v>0.1159022584150904</v>
+        <v>0.3389588286809584</v>
       </c>
       <c r="E21">
-        <v>0.09623782212140775</v>
+        <v>0.03591718541424704</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4928704507979091</v>
+        <v>0.4871007018978446</v>
       </c>
       <c r="H21">
-        <v>0.6101767290189173</v>
+        <v>0.2972806196906816</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.268951429813356</v>
+        <v>0.5327114422681944</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.16782810737493</v>
+        <v>1.607243019956343</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.20054070382696</v>
+        <v>6.162648758053024</v>
       </c>
       <c r="C22">
-        <v>0.3800649685867654</v>
+        <v>0.763129667231766</v>
       </c>
       <c r="D22">
-        <v>0.1229220744547348</v>
+        <v>0.3655595447177973</v>
       </c>
       <c r="E22">
-        <v>0.0954255344724686</v>
+        <v>0.03601034035313333</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4944913548641239</v>
+        <v>0.5193872560945323</v>
       </c>
       <c r="H22">
-        <v>0.6073022914234087</v>
+        <v>0.3063001970158155</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2791822145934049</v>
+        <v>0.5725904252547309</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.165483727923942</v>
+        <v>1.694930809569115</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.131830506069264</v>
+        <v>5.933711056600941</v>
       </c>
       <c r="C23">
-        <v>0.3729762582917147</v>
+        <v>0.741290929458529</v>
       </c>
       <c r="D23">
-        <v>0.1191724782214436</v>
+        <v>0.3513249010164401</v>
       </c>
       <c r="E23">
-        <v>0.09585357029264685</v>
+        <v>0.03594561407867047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4935826534276799</v>
+        <v>0.5019482855988571</v>
       </c>
       <c r="H23">
-        <v>0.6088025757285607</v>
+        <v>0.3013768540608623</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2737143275261928</v>
+        <v>0.5512535673764773</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.166572594865102</v>
+        <v>1.647463083023979</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.871404586643905</v>
+        <v>5.071952194924847</v>
       </c>
       <c r="C24">
-        <v>0.3461033310381652</v>
+        <v>0.6590646545624566</v>
       </c>
       <c r="D24">
-        <v>0.1050370473469968</v>
+        <v>0.2981838068017737</v>
       </c>
       <c r="E24">
-        <v>0.09759536663123924</v>
+        <v>0.03601911256790302</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.491095951556602</v>
+        <v>0.4402359679523187</v>
       </c>
       <c r="H24">
-        <v>0.6152276645120907</v>
+        <v>0.2850377908092412</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2531713223659295</v>
+        <v>0.4715326266841231</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.174255862781649</v>
+        <v>1.481687718862531</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.590148647062108</v>
+        <v>4.15100760446245</v>
       </c>
       <c r="C25">
-        <v>0.3170735254962267</v>
+        <v>0.5711856241589146</v>
       </c>
       <c r="D25">
-        <v>0.08992925391349615</v>
+        <v>0.2422096794883544</v>
       </c>
       <c r="E25">
-        <v>0.09973139977718937</v>
+        <v>0.03671283167163075</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4904353303068518</v>
+        <v>0.3816588110852024</v>
       </c>
       <c r="H25">
-        <v>0.623740378746902</v>
+        <v>0.2717665561610687</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2313692862832823</v>
+        <v>0.3874583367944098</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.190097988944387</v>
+        <v>1.328880570567947</v>
       </c>
     </row>
   </sheetData>
